--- a/data/Pits.xlsx
+++ b/data/Pits.xlsx
@@ -7,16 +7,26 @@
     <workbookView windowWidth="18530" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Обозначения" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Read Me" sheetId="2" r:id="rId1"/>
+    <sheet name="Data широкий формат" sheetId="1" r:id="rId2"/>
+    <sheet name="Data длинный формат" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data широкий формат'!$A$1:$H$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data длинный формат'!$A$1:$H$154</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="33">
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Расшифровка</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -45,25 +55,28 @@
     <t>Sediment_Density_In</t>
   </si>
   <si>
-    <t>Плотность осадка (глубина погружения щупа) внутри ямки</t>
+    <t>Плотность осадка (глубина погружения щупа) внутри ямки, см</t>
   </si>
   <si>
     <t>Sediment_Density_Out</t>
   </si>
   <si>
-    <t>Плотность осадка (глубина погружения щупа) за пределами ямки</t>
+    <t>Плотность осадка (глубина погружения щупа) за пределами ямки, см</t>
   </si>
   <si>
     <t>Dead_Mya</t>
   </si>
   <si>
-    <t>Присутствие раковин мертвых Mya arenaria на дне ямки</t>
+    <t>Присутствие раковин мертвых Mya arenaria на дне ямки, 0 - нет; 1 - есть</t>
   </si>
   <si>
     <t>Material_In_Pit</t>
   </si>
   <si>
     <t>Характер грунта на дне ямки</t>
+  </si>
+  <si>
+    <t>SedimentDensityIn</t>
   </si>
   <si>
     <t>14/08/2020</t>
@@ -84,7 +97,7 @@
     <t>песок</t>
   </si>
   <si>
-    <t>галька</t>
+    <t>Глина</t>
   </si>
   <si>
     <t>Мелкие камни</t>
@@ -92,20 +105,35 @@
   <si>
     <t>15/08/2020</t>
   </si>
+  <si>
+    <t>Sediment_Density</t>
+  </si>
+  <si>
+    <t>Measurement_Position</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>глина</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +144,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,40 +190,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,23 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,30 +230,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +267,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +381,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,43 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,43 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,16 +498,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +517,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,46 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,12 +574,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,135 +617,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -719,6 +767,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1052,68 +1103,81 @@
     <col min="2" max="2" width="64.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1124,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1142,36 +1206,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0.463</v>
@@ -1189,15 +1253,15 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0.463</v>
@@ -1215,15 +1279,15 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.463</v>
@@ -1241,15 +1305,15 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0.432</v>
@@ -1267,15 +1331,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0.432</v>
@@ -1293,15 +1357,15 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0.432</v>
@@ -1319,15 +1383,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0.432</v>
@@ -1345,15 +1409,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:8">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0.432</v>
@@ -1371,15 +1435,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0.432</v>
@@ -1397,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:8">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0.432</v>
@@ -1423,15 +1487,15 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0.432</v>
@@ -1449,15 +1513,15 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:8">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0.432</v>
@@ -1475,15 +1539,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0.337</v>
@@ -1501,15 +1565,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0.337</v>
@@ -1527,15 +1591,15 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:8">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0.337</v>
@@ -1553,15 +1617,15 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:8">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0.337</v>
@@ -1579,15 +1643,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:8">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0.337</v>
@@ -1605,15 +1669,15 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:8">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0.337</v>
@@ -1631,15 +1695,15 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0.393</v>
@@ -1657,15 +1721,15 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0.393</v>
@@ -1683,15 +1747,15 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:8">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0.393</v>
@@ -1709,15 +1773,15 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>0.356</v>
@@ -1732,18 +1796,18 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>0.356</v>
@@ -1758,18 +1822,18 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>0.356</v>
@@ -1784,18 +1848,18 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:8">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>0.333</v>
@@ -1813,15 +1877,15 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:8">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0.333</v>
@@ -1839,15 +1903,15 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:8">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0.333</v>
@@ -1865,15 +1929,15 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:8">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>0.334</v>
@@ -1891,15 +1955,15 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:8">
       <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>0.334</v>
@@ -1917,15 +1981,15 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:8">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>0.334</v>
@@ -1943,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1951,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>0.306</v>
@@ -1969,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1977,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>0.306</v>
@@ -1995,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2003,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>0.306</v>
@@ -2021,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2029,9 +2093,9 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5">
         <v>0.31</v>
       </c>
       <c r="D35">
@@ -2047,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2055,9 +2119,9 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5">
         <v>0.31</v>
       </c>
       <c r="D36">
@@ -2073,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2081,9 +2145,9 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5">
         <v>0.31</v>
       </c>
       <c r="D37">
@@ -2099,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2107,9 +2171,9 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5">
         <v>0.31</v>
       </c>
       <c r="D38">
@@ -2125,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2133,9 +2197,9 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1">
+        <v>19</v>
+      </c>
+      <c r="C39" s="5">
         <v>0.31</v>
       </c>
       <c r="D39">
@@ -2151,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2159,9 +2223,9 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5">
         <v>0.31</v>
       </c>
       <c r="D40">
@@ -2177,15 +2241,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:8">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>0.307</v>
@@ -2200,18 +2264,18 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:8">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>0.307</v>
@@ -2226,18 +2290,18 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:8">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>0.307</v>
@@ -2252,18 +2316,18 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:8">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>0.275</v>
@@ -2281,15 +2345,15 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:8">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>0.275</v>
@@ -2307,15 +2371,15 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:8">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>0.275</v>
@@ -2333,15 +2397,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:8">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>0.291</v>
@@ -2359,15 +2423,15 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:8">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>0.291</v>
@@ -2385,15 +2449,15 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:8">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>0.291</v>
@@ -2411,41 +2475,41 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1">
+        <v>27</v>
+      </c>
+      <c r="C50" s="5">
         <v>1.87</v>
       </c>
       <c r="D50">
         <v>33.056</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:8">
       <c r="A51">
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>0.241</v>
@@ -2454,24 +2518,24 @@
         <v>34.506</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:8">
       <c r="A52">
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>0.219</v>
@@ -2480,102 +2544,102 @@
         <v>33.951</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:8">
       <c r="A53">
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>0.218</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
         <v>33.94</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:8">
       <c r="A54">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>0.219</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
         <v>33.94</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:8">
       <c r="A55">
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1">
+        <v>27</v>
+      </c>
+      <c r="C55" s="5">
         <v>0.22</v>
       </c>
       <c r="D55">
         <v>33.945</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:8">
       <c r="A56">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>0.219</v>
@@ -2584,128 +2648,128 @@
         <v>33.937</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:8">
       <c r="A57">
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1">
+        <v>27</v>
+      </c>
+      <c r="C57" s="5">
         <v>0.22</v>
       </c>
       <c r="D57">
         <v>33.932</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:8">
       <c r="A58">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>1.139</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="5">
         <v>31.94</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:8">
       <c r="A59">
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5">
         <v>1.14</v>
       </c>
       <c r="D59">
         <v>31.946</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:8">
       <c r="A60">
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>1.142</v>
       </c>
       <c r="D60">
-        <v>31.927</v>
+        <v>32.927</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:8">
       <c r="A61">
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>1.154</v>
@@ -2714,24 +2778,24 @@
         <v>31.925</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:8">
       <c r="A62">
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>1.155</v>
@@ -2740,24 +2804,24 @@
         <v>31.922</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:8">
       <c r="A63">
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>1.159</v>
@@ -2766,76 +2830,76 @@
         <v>31.929</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:8">
       <c r="A64">
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="1">
+        <v>27</v>
+      </c>
+      <c r="C64" s="5">
         <v>1.16</v>
       </c>
       <c r="D64">
         <v>31.927</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:8">
       <c r="A65">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="1">
+        <v>27</v>
+      </c>
+      <c r="C65" s="5">
         <v>1.16</v>
       </c>
       <c r="D65">
         <v>31.923</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:8">
       <c r="A66">
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>1.159</v>
@@ -2844,50 +2908,50 @@
         <v>31.921</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:8">
       <c r="A67">
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>1.157</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="5">
         <v>31.95</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:8">
       <c r="A68">
         <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C68">
         <v>1.156</v>
@@ -2896,102 +2960,102 @@
         <v>31.917</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:8">
       <c r="A69">
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1">
+        <v>27</v>
+      </c>
+      <c r="C69" s="5">
         <v>1.16</v>
       </c>
       <c r="D69">
         <v>31.919</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:8">
       <c r="A70">
         <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="1">
+        <v>27</v>
+      </c>
+      <c r="C70" s="5">
         <v>1.16</v>
       </c>
       <c r="D70">
         <v>31.919</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:8">
       <c r="A71">
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="1">
+        <v>27</v>
+      </c>
+      <c r="C71" s="5">
         <v>1.16</v>
       </c>
       <c r="D71">
         <v>31.922</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="1:8">
       <c r="A72">
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>1.162</v>
@@ -3000,24 +3064,24 @@
         <v>31.923</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:8">
       <c r="A73">
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>1.162</v>
@@ -3026,24 +3090,24 @@
         <v>31.913</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:8">
       <c r="A74">
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>1.164</v>
@@ -3052,24 +3116,24 @@
         <v>31.913</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:8">
       <c r="A75">
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>1.168</v>
@@ -3078,24 +3142,24 @@
         <v>31.914</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:8">
       <c r="A76">
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>1.175</v>
@@ -3104,24 +3168,24 @@
         <v>31.891</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:8">
       <c r="A77">
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>1.182</v>
@@ -3130,50 +3194,50 @@
         <v>31.881</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:8">
       <c r="A78">
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>1.184</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="5">
         <v>31.88</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:8">
       <c r="A79">
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>1.188</v>
@@ -3182,24 +3246,24 @@
         <v>31.878</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:8">
       <c r="A80">
         <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>1.198</v>
@@ -3208,50 +3272,50 @@
         <v>31.863</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:8">
       <c r="A81">
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="1">
+        <v>27</v>
+      </c>
+      <c r="C81" s="5">
         <v>1.21</v>
       </c>
       <c r="D81">
         <v>31.826</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:8">
       <c r="A82">
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C82">
         <v>1.244</v>
@@ -3260,102 +3324,102 @@
         <v>31.779</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:8">
       <c r="A83">
         <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="1">
+        <v>27</v>
+      </c>
+      <c r="C83" s="5">
         <v>1.25</v>
       </c>
       <c r="D83">
         <v>31.783</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:8">
       <c r="A84">
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="1">
+        <v>27</v>
+      </c>
+      <c r="C84" s="5">
         <v>1.25</v>
       </c>
       <c r="D84">
         <v>31.786</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:8">
       <c r="A85">
         <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="1">
+        <v>27</v>
+      </c>
+      <c r="C85" s="5">
         <v>1.25</v>
       </c>
       <c r="D85">
         <v>31.789</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:8">
       <c r="A86">
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C86">
         <v>1.256</v>
@@ -3364,23 +3428,23 @@
         <v>31.761</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:8">
       <c r="A87">
         <v>54</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="6">
         <v>44053</v>
       </c>
       <c r="C87">
@@ -3390,23 +3454,23 @@
         <v>34.3506</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:8">
       <c r="A88">
         <v>55</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="6">
         <v>44053</v>
       </c>
       <c r="C88">
@@ -3416,23 +3480,23 @@
         <v>34.3694</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:8">
       <c r="A89">
         <v>56</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="6">
         <v>44053</v>
       </c>
       <c r="C89">
@@ -3442,23 +3506,23 @@
         <v>34.5442</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:8">
       <c r="A90">
         <v>57</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="6">
         <v>44053</v>
       </c>
       <c r="C90">
@@ -3468,23 +3532,23 @@
         <v>34.6067</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:8">
       <c r="A91">
         <v>58</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="6">
         <v>44053</v>
       </c>
       <c r="C91">
@@ -3494,23 +3558,23 @@
         <v>34.6163</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:8">
       <c r="A92">
         <v>59</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="6">
         <v>44053</v>
       </c>
       <c r="C92">
@@ -3520,23 +3584,23 @@
         <v>34.6624</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:8">
       <c r="A93">
         <v>60</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="6">
         <v>44053</v>
       </c>
       <c r="C93">
@@ -3546,23 +3610,23 @@
         <v>34.7119</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:8">
       <c r="A94">
         <v>61</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="6">
         <v>44053</v>
       </c>
       <c r="C94">
@@ -3572,23 +3636,23 @@
         <v>34.7612</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:8">
       <c r="A95">
         <v>62</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="6">
         <v>44053</v>
       </c>
       <c r="C95">
@@ -3598,23 +3662,23 @@
         <v>34.9003</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:8">
       <c r="A96">
         <v>63</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="6">
         <v>44053</v>
       </c>
       <c r="C96">
@@ -3624,23 +3688,23 @@
         <v>34.8862</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:8">
       <c r="A97">
         <v>64</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="6">
         <v>44053</v>
       </c>
       <c r="C97">
@@ -3650,23 +3714,23 @@
         <v>34.3513</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:8">
       <c r="A98">
         <v>65</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="6">
         <v>44053</v>
       </c>
       <c r="C98">
@@ -3676,23 +3740,23 @@
         <v>34.3766</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:8">
       <c r="A99">
         <v>66</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="6">
         <v>44053</v>
       </c>
       <c r="C99">
@@ -3702,23 +3766,23 @@
         <v>34.5941</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:8">
       <c r="A100">
         <v>67</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="6">
         <v>44053</v>
       </c>
       <c r="C100">
@@ -3728,23 +3792,23 @@
         <v>34.6079</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:8">
       <c r="A101">
         <v>68</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="6">
         <v>44053</v>
       </c>
       <c r="C101">
@@ -3754,23 +3818,23 @@
         <v>34.6172</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:8">
       <c r="A102">
         <v>69</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="6">
         <v>44053</v>
       </c>
       <c r="C102">
@@ -3780,23 +3844,23 @@
         <v>34.7155</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:8">
       <c r="A103">
         <v>70</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="6">
         <v>44053</v>
       </c>
       <c r="C103">
@@ -3806,23 +3870,23 @@
         <v>34.7566</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:8">
       <c r="A104">
         <v>71</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="6">
         <v>44053</v>
       </c>
       <c r="C104">
@@ -3832,23 +3896,23 @@
         <v>34.8216</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:8">
       <c r="A105">
         <v>72</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="6">
         <v>44053</v>
       </c>
       <c r="C105">
@@ -3858,45 +3922,55 @@
         <v>34.8885</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:8">
       <c r="A106">
         <v>73</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="6">
         <v>44053</v>
       </c>
       <c r="C106">
         <v>0.4761</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="7">
         <v>34.902</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H106">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3905,14 +3979,4035 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="8.54545454545454" customWidth="1"/>
+    <col min="5" max="5" width="17.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="22.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="8.90909090909091" customWidth="1"/>
+    <col min="8" max="8" width="14.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0.463</v>
+      </c>
+      <c r="D2">
+        <v>34.539</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0.463</v>
+      </c>
+      <c r="D3">
+        <v>34.539</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0.463</v>
+      </c>
+      <c r="D4">
+        <v>34.539</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.463</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.539</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.463</v>
+      </c>
+      <c r="D6" s="1">
+        <v>34.539</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.463</v>
+      </c>
+      <c r="D7" s="1">
+        <v>34.539</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D8" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D15" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D18" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D19" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D20" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D21" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D22" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D23" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D24" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D25" s="1">
+        <v>34.492</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D27" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D28" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D30" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D31" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D32" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D33" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D34" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D36" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="D37" s="1">
+        <v>34.383</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D38" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E38" s="1">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D39" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D40" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E40" s="1">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D41" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D42" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="D43" s="1">
+        <v>34.461</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D44" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D45" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D46" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D47" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D48" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.356</v>
+      </c>
+      <c r="D49" s="1">
+        <v>34.415</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D50" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E50" s="1">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D51" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E51" s="1">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D52" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D53" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D54" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E54" s="1">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="D55" s="1">
+        <v>34.377</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D56" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E56" s="1">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D57" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E57" s="1">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D58" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D59" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D60" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.334</v>
+      </c>
+      <c r="D61" s="1">
+        <v>34.384</v>
+      </c>
+      <c r="E61" s="1">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D62" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D63" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D64" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D65" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D66" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="D67" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D68" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D69" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D71" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E71" s="1">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D72" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E72" s="1">
+        <v>9</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D73" s="1">
+        <v>34.497</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D74" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D75" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D76" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D77" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D78" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D79" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D80" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D81" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D82" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>14</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D83" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D84" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D85" s="1">
+        <v>34.503</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D86" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D87" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D88" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D89" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D90" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.275</v>
+      </c>
+      <c r="D91" s="1">
+        <v>34.517</v>
+      </c>
+      <c r="E91" s="1">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D92" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D93" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D94" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D95" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D96" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.291</v>
+      </c>
+      <c r="D97" s="1">
+        <v>34.504</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>17</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="D98" s="1">
+        <v>33.056</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>18</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.241</v>
+      </c>
+      <c r="D99" s="1">
+        <v>34.506</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>19</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="D100" s="1">
+        <v>33.951</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>20</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="D101" s="2">
+        <v>33.94</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>21</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="D102" s="2">
+        <v>33.94</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>22</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D103" s="1">
+        <v>33.945</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>23</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="D104" s="1">
+        <v>33.937</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>24</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D105" s="1">
+        <v>33.932</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>25</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.139</v>
+      </c>
+      <c r="D106" s="2">
+        <v>31.94</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>26</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1.14</v>
+      </c>
+      <c r="D107" s="1">
+        <v>31.946</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>27</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.142</v>
+      </c>
+      <c r="D108" s="1">
+        <v>32.927</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>28</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.154</v>
+      </c>
+      <c r="D109" s="1">
+        <v>31.925</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>29</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.155</v>
+      </c>
+      <c r="D110" s="1">
+        <v>31.922</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>30</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.159</v>
+      </c>
+      <c r="D111" s="1">
+        <v>31.929</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>31</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1.16</v>
+      </c>
+      <c r="D112" s="1">
+        <v>31.927</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>32</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1.16</v>
+      </c>
+      <c r="D113" s="1">
+        <v>31.923</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>33</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.159</v>
+      </c>
+      <c r="D114" s="1">
+        <v>31.921</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>34</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.157</v>
+      </c>
+      <c r="D115" s="2">
+        <v>31.95</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>35</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.156</v>
+      </c>
+      <c r="D116" s="1">
+        <v>31.917</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>36</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1.16</v>
+      </c>
+      <c r="D117" s="1">
+        <v>31.919</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>37</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1.16</v>
+      </c>
+      <c r="D118" s="1">
+        <v>31.919</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>38</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1.16</v>
+      </c>
+      <c r="D119" s="1">
+        <v>31.922</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>39</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.162</v>
+      </c>
+      <c r="D120" s="1">
+        <v>31.923</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>40</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.162</v>
+      </c>
+      <c r="D121" s="1">
+        <v>31.913</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>41</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.164</v>
+      </c>
+      <c r="D122" s="1">
+        <v>31.913</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>42</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.168</v>
+      </c>
+      <c r="D123" s="1">
+        <v>31.914</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>43</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.175</v>
+      </c>
+      <c r="D124" s="1">
+        <v>31.891</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>44</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.182</v>
+      </c>
+      <c r="D125" s="1">
+        <v>31.881</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>45</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.184</v>
+      </c>
+      <c r="D126" s="2">
+        <v>31.88</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>46</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1.188</v>
+      </c>
+      <c r="D127" s="1">
+        <v>31.878</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>47</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1.198</v>
+      </c>
+      <c r="D128" s="1">
+        <v>31.863</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>48</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="D129" s="1">
+        <v>31.826</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>49</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1.244</v>
+      </c>
+      <c r="D130" s="1">
+        <v>31.779</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>50</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D131" s="1">
+        <v>31.783</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>51</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D132" s="1">
+        <v>31.786</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>52</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D133" s="1">
+        <v>31.789</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>53</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.256</v>
+      </c>
+      <c r="D134" s="1">
+        <v>31.761</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>54</v>
+      </c>
+      <c r="B135" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.5184</v>
+      </c>
+      <c r="D135" s="1">
+        <v>34.3506</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>55</v>
+      </c>
+      <c r="B136" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.5052</v>
+      </c>
+      <c r="D136" s="1">
+        <v>34.3694</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>56</v>
+      </c>
+      <c r="B137" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.444</v>
+      </c>
+      <c r="D137" s="1">
+        <v>34.5442</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>57</v>
+      </c>
+      <c r="B138" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.4346</v>
+      </c>
+      <c r="D138" s="1">
+        <v>34.6067</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>58</v>
+      </c>
+      <c r="B139" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.4359</v>
+      </c>
+      <c r="D139" s="1">
+        <v>34.6163</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>59</v>
+      </c>
+      <c r="B140" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.4637</v>
+      </c>
+      <c r="D140" s="1">
+        <v>34.6624</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>60</v>
+      </c>
+      <c r="B141" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.4222</v>
+      </c>
+      <c r="D141" s="1">
+        <v>34.7119</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>61</v>
+      </c>
+      <c r="B142" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.4249</v>
+      </c>
+      <c r="D142" s="1">
+        <v>34.7612</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>62</v>
+      </c>
+      <c r="B143" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.4548</v>
+      </c>
+      <c r="D143" s="1">
+        <v>34.9003</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>63</v>
+      </c>
+      <c r="B144" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.4706</v>
+      </c>
+      <c r="D144" s="1">
+        <v>34.8862</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>64</v>
+      </c>
+      <c r="B145" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.5129</v>
+      </c>
+      <c r="D145" s="1">
+        <v>34.3513</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>65</v>
+      </c>
+      <c r="B146" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.5054</v>
+      </c>
+      <c r="D146" s="1">
+        <v>34.3766</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>66</v>
+      </c>
+      <c r="B147" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.4371</v>
+      </c>
+      <c r="D147" s="1">
+        <v>34.5941</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>67</v>
+      </c>
+      <c r="B148" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.4339</v>
+      </c>
+      <c r="D148" s="1">
+        <v>34.6079</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>68</v>
+      </c>
+      <c r="B149" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.4358</v>
+      </c>
+      <c r="D149" s="1">
+        <v>34.6172</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>69</v>
+      </c>
+      <c r="B150" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.4211</v>
+      </c>
+      <c r="D150" s="1">
+        <v>34.7155</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>70</v>
+      </c>
+      <c r="B151" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.4245</v>
+      </c>
+      <c r="D151" s="1">
+        <v>34.7566</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>71</v>
+      </c>
+      <c r="B152" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.4345</v>
+      </c>
+      <c r="D152" s="1">
+        <v>34.8216</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>72</v>
+      </c>
+      <c r="B153" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.4659</v>
+      </c>
+      <c r="D153" s="1">
+        <v>34.8885</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>73</v>
+      </c>
+      <c r="B154" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.4761</v>
+      </c>
+      <c r="D154" s="4">
+        <v>34.902</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H154">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:H154">
+    <sortCondition ref="A2:A154"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
